--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P20_trail9 Features.xlsx
@@ -3745,7 +3745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3756,29 +3756,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3799,115 +3797,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3924,72 +3912,66 @@
         <v>1.398406606420471e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.1415109821155306</v>
+        <v>5.250090180664251e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.492430022563727</v>
+        <v>1.379577701337404e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.250090180664251e-08</v>
+        <v>-0.01488986812382292</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.379577701337404e-06</v>
+        <v>0.2107618114141717</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01488986812382292</v>
+        <v>0.04455129420113391</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2107618114141717</v>
+        <v>1.904946362788628</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04455129420113391</v>
+        <v>2.501846780455892</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.936318169791804</v>
+        <v>5.144457697506695</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.501846780455892</v>
+        <v>1.242469130256272e-17</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.144457697506695</v>
+        <v>6255097880.136607</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.242469130256272e-17</v>
+        <v>1.909144414401743e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6255097880.136607</v>
+        <v>486.1315717414138</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.909144414401743e-08</v>
+        <v>0.0001151309188642035</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>486.1315717414138</v>
+        <v>7.986873887391459</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001151309188642035</v>
+        <v>1.190515574206611</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.986873887391459</v>
+        <v>0.007344219101279591</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.190515574206611</v>
+        <v>3.316133537777743</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.007344219101279591</v>
+        <v>0.9609760787463023</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.316133537777743</v>
+        <v>1.224035472311787</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9609760787463023</v>
+        <v>92</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.224035472311787</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.026650039641797</v>
       </c>
     </row>
@@ -4004,72 +3986,66 @@
         <v>1.383931915800162e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.106417433698938</v>
+        <v>4.021867933312826e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.566261371111179</v>
+        <v>1.379497541284548e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.021867933312826e-08</v>
+        <v>0.002467862303121611</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.379497541284548e-06</v>
+        <v>0.1655449362539353</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.002467862303121611</v>
+        <v>0.02735968518852212</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1655449362539353</v>
+        <v>1.908753093830596</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02735968518852212</v>
+        <v>2.701096178211468</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.940573514226551</v>
+        <v>5.34555273474532</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.701096178211468</v>
+        <v>1.150746258480065e-17</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.34555273474532</v>
+        <v>6931541262.317214</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.150746258480065e-17</v>
+        <v>1.727612831144149e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6931541262.317214</v>
+        <v>552.8905884403488</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.727612831144149e-08</v>
+        <v>0.0001048790876030754</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>552.8905884403488</v>
+        <v>7.425886413100184</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001048790876030754</v>
+        <v>1.214028326931685</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.425886413100184</v>
+        <v>0.005783430279421976</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.214028326931685</v>
+        <v>3.551740392646775</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.005783430279421976</v>
+        <v>0.9614361345919835</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.551740392646775</v>
+        <v>1.212925601777675</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9614361345919835</v>
+        <v>124</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.212925601777675</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>124</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.24366870562902</v>
       </c>
     </row>
@@ -4084,72 +4060,66 @@
         <v>1.398955180836801e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1143081572491231</v>
+        <v>4.028938220322785e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.567280893551557</v>
+        <v>1.379626778360856e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>4.028938220322785e-08</v>
+        <v>0.01526221729737449</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.379626778360856e-06</v>
+        <v>0.1294643317387858</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01526221729737449</v>
+        <v>0.01696580577667174</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1294643317387858</v>
+        <v>1.911749013285116</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01696580577667174</v>
+        <v>2.723606760469266</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.937271697901969</v>
+        <v>5.295180263075433</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.723606760469266</v>
+        <v>1.172744242385469e-17</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.295180263075433</v>
+        <v>6839618293.556355</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.172744242385469e-17</v>
+        <v>1.754866289337561e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>6839618293.556355</v>
+        <v>548.6141942703218</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.754866289337561e-08</v>
+        <v>0.0001043274556388101</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>548.6141942703218</v>
+        <v>7.820847516055176</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001043274556388101</v>
+        <v>2.11551000655456</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.820847516055176</v>
+        <v>0.006381257249332135</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.11551000655456</v>
+        <v>3.926668436432092</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006381257249332135</v>
+        <v>0.9620307649402964</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.926668436432092</v>
+        <v>1.202083975781241</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9620307649402964</v>
+        <v>125</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.202083975781241</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.559156659706981</v>
       </c>
     </row>
@@ -4164,72 +4134,66 @@
         <v>1.422521592504985e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.09905693631820349</v>
+        <v>4.028938220322785e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.597700777791898</v>
+        <v>1.379908573617019e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.028938220322785e-08</v>
+        <v>0.0239790080237124</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.379908573617019e-06</v>
+        <v>0.1029705539725896</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0239790080237124</v>
+        <v>0.01116318662780722</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1029705539725896</v>
+        <v>1.912941433938622</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01116318662780722</v>
+        <v>2.540420313215572</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.937182275886054</v>
+        <v>5.366275358334958</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.540420313215572</v>
+        <v>1.141875883141932e-17</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.366275358334958</v>
+        <v>7019957668.218554</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.141875883141932e-17</v>
+        <v>1.708086068913467e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>7019957668.218554</v>
+        <v>562.7142161316372</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.708086068913467e-08</v>
+        <v>0.0001124565777999335</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>562.7142161316372</v>
+        <v>9.267662376393471</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001124565777999335</v>
+        <v>2.05373930759722</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.267662376393471</v>
+        <v>0.009658846652402022</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.05373930759722</v>
+        <v>4.148743812377984</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.009658846652402022</v>
+        <v>0.9613646473097862</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.148743812377984</v>
+        <v>1.203448687106825</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9613646473097862</v>
+        <v>125</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.203448687106825</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.04456312921603</v>
       </c>
     </row>
@@ -4244,72 +4208,66 @@
         <v>1.443984220708868e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.05766632651713175</v>
+        <v>4.028938220322785e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.630783475690098</v>
+        <v>1.380296282454098e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.028938220322785e-08</v>
+        <v>0.02960632412675844</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.380296282454098e-06</v>
+        <v>0.08559703331140389</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.02960632412675844</v>
+        <v>0.008196281549867606</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08559703331140389</v>
+        <v>1.913085430886525</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.008196281549867606</v>
+        <v>2.371240568005117</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.938936699107526</v>
+        <v>6.052307969441145</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.371240568005117</v>
+        <v>7.266938821268534e-18</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.052307969441145</v>
+        <v>11054236650.19305</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.266938821268534e-18</v>
+        <v>1.085070599711752e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>11054236650.19305</v>
+        <v>887.9919311182113</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.085070599711752e-08</v>
+        <v>9.101870638349306e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>887.9919311182113</v>
+        <v>8.996929275080731</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>9.101870638349306e-05</v>
+        <v>1.540052054735383</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.996929275080731</v>
+        <v>0.007367485193933709</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.540052054735383</v>
+        <v>4.186124053722105</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007367485193933709</v>
+        <v>0.9618890660736777</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>4.186124053722105</v>
+        <v>1.211150898067244</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9618890660736777</v>
+        <v>140</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.211150898067244</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>2.726981598118176</v>
       </c>
     </row>
@@ -4324,72 +4282,66 @@
         <v>1.459350433571501e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.001278078661260057</v>
+        <v>4.028938220322785e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.649325406378774</v>
+        <v>1.380754674243851e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.028938220322785e-08</v>
+        <v>0.03320388377204098</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.380754674243851e-06</v>
+        <v>0.07567750186835684</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03320388377204098</v>
+        <v>0.006826800582757501</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07567750186835684</v>
+        <v>1.925177467928306</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.006826800582757501</v>
+        <v>2.943876554817966</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.948557039684174</v>
+        <v>5.058510060971953</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.943876554817966</v>
+        <v>7.192854864292764e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.058510060971953</v>
+        <v>10682510229.3506</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.192854864292764e-18</v>
+        <v>1.129595237904336e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>10682510229.3506</v>
+        <v>820.8200040777301</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.129595237904336e-08</v>
+        <v>9.883501590857089e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>820.8200040777301</v>
+        <v>7.532072372009468</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>9.883501590857089e-05</v>
+        <v>1.391448831413407</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.532072372009468</v>
+        <v>0.00560711941118267</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.391448831413407</v>
+        <v>4.016529095681656</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00560711941118267</v>
+        <v>0.9619504364074515</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.016529095681656</v>
+        <v>1.139479128516489</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9619504364074515</v>
+        <v>135</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.139479128516489</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>2.359501355806196</v>
       </c>
     </row>
@@ -4766,7 +4718,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.298254037855996</v>
+        <v>1.309091368332767</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.417137921341148</v>
@@ -4855,7 +4807,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.309824334795884</v>
+        <v>1.322002604299687</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.28200626515933</v>
@@ -4944,7 +4896,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.344640020201838</v>
+        <v>1.355660253566413</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.320806029796305</v>
@@ -5033,7 +4985,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.373726357984013</v>
+        <v>1.386741271509935</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.360937989491743</v>
@@ -5122,7 +5074,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387729393304158</v>
+        <v>1.396982676233248</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.291844731528036</v>
@@ -5211,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.410942077981223</v>
+        <v>1.422395586760994</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.155807409341998</v>
@@ -5300,7 +5252,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.43843219799871</v>
+        <v>1.451762889502647</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.196855982534759</v>
@@ -5389,7 +5341,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.417136180353075</v>
+        <v>1.437319186130914</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.385452846121206</v>
@@ -5478,7 +5430,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.412771667514839</v>
+        <v>1.431993035435237</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.352865031874318</v>
@@ -5567,7 +5519,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.39311676588425</v>
+        <v>1.408621936847941</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.371737853792171</v>
@@ -5656,7 +5608,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.385719068786584</v>
+        <v>1.405664770911884</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.421608286054705</v>
@@ -5745,7 +5697,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.388298002473951</v>
+        <v>1.410272675804971</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.461357631030054</v>
@@ -5834,7 +5786,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.363130367217753</v>
+        <v>1.371398794902973</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.223230240286039</v>
@@ -5923,7 +5875,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.395776943560033</v>
+        <v>1.414350110310265</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.309364067995719</v>
@@ -6012,7 +5964,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.392334482231694</v>
+        <v>1.407627315060028</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.344599528053838</v>
@@ -6101,7 +6053,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.360615352617888</v>
+        <v>1.372662506515818</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.435220246177348</v>
@@ -6190,7 +6142,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.369520980897437</v>
+        <v>1.382145423370649</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.333076978364642</v>
@@ -6279,7 +6231,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.329091162007401</v>
+        <v>1.342763214708263</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.31378027805821</v>
@@ -6368,7 +6320,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.329024079107584</v>
+        <v>1.342315293395252</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.338341202968448</v>
@@ -6457,7 +6409,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.320021874493413</v>
+        <v>1.329826345832635</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.496845592872594</v>
@@ -6546,7 +6498,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.321154420971671</v>
+        <v>1.331901313665717</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.23385005521893</v>
@@ -6635,7 +6587,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.345399651782544</v>
+        <v>1.358814879536367</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.314122311046976</v>
@@ -6724,7 +6676,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.341224511579446</v>
+        <v>1.353262006527625</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.248881655898018</v>
@@ -6813,7 +6765,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.334494597487849</v>
+        <v>1.346053199986706</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.375139786048535</v>
@@ -6902,7 +6854,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.327412678825836</v>
+        <v>1.337491551743355</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.26611163010178</v>
@@ -6991,7 +6943,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.316566142059423</v>
+        <v>1.324885945577476</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.39018323469362</v>
@@ -7080,7 +7032,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.322908752844753</v>
+        <v>1.332849814098345</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.174076656590707</v>
@@ -7169,7 +7121,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.346847454605816</v>
+        <v>1.360024910714272</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.294207043555339</v>
@@ -7258,7 +7210,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.334549819574055</v>
+        <v>1.346722655506623</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.491189844325805</v>
@@ -7347,7 +7299,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.34827163227034</v>
+        <v>1.360380225473462</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.297469951062104</v>
@@ -7436,7 +7388,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.364900803711452</v>
+        <v>1.382592643941722</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.428944781766682</v>
@@ -7525,7 +7477,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.374950464225627</v>
+        <v>1.39195653709754</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.120309247708954</v>
@@ -7614,7 +7566,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.387948081250626</v>
+        <v>1.40342313409264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.380347145689598</v>
@@ -7703,7 +7655,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.386071454236102</v>
+        <v>1.404464610440249</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.310373341001515</v>
@@ -7792,7 +7744,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.421074185734914</v>
+        <v>1.443278254641265</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.501516161082205</v>
@@ -7881,7 +7833,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.448016353366201</v>
+        <v>1.47260322050992</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.376885699438633</v>
@@ -7970,7 +7922,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.448555527368797</v>
+        <v>1.470579179924653</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.533257307690387</v>
@@ -8059,7 +8011,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.467590284305088</v>
+        <v>1.502042708862314</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.444428129860724</v>
@@ -8148,7 +8100,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.492156462228122</v>
+        <v>1.527616133070562</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.15738763576693</v>
@@ -8237,7 +8189,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.520976967325363</v>
+        <v>1.560246289795613</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.272689724773803</v>
@@ -8326,7 +8278,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.528666511370963</v>
+        <v>1.573500183425117</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.297742506199606</v>
@@ -8415,7 +8367,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499626697387646</v>
+        <v>1.543376850839487</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.55881866364296</v>
@@ -8504,7 +8456,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.506461467818281</v>
+        <v>1.550066690424187</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.378642974846184</v>
@@ -8593,7 +8545,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.52600603217494</v>
+        <v>1.571704972228712</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.517901256913722</v>
@@ -8682,7 +8634,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.507493981535931</v>
+        <v>1.553344735411728</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.57254977637847</v>
@@ -8771,7 +8723,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.506188699171373</v>
+        <v>1.547183224638248</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.552484295206545</v>
@@ -8860,7 +8812,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.496792731147768</v>
+        <v>1.542812663511816</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.56479759374909</v>
@@ -8949,7 +8901,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.522368525928696</v>
+        <v>1.569045049578418</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.557740520112804</v>
@@ -9038,7 +8990,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522921613617902</v>
+        <v>1.569474498244757</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.492258059057605</v>
@@ -9127,7 +9079,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.502901779334583</v>
+        <v>1.549831352169602</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.565959542829811</v>
@@ -9216,7 +9168,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.491662214886618</v>
+        <v>1.543542219453586</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.390187098562418</v>
@@ -9502,7 +9454,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.257335097115617</v>
+        <v>1.259927464582118</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.716497096988604</v>
@@ -9591,7 +9543,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.260317313843544</v>
+        <v>1.263167842663069</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.698962871637102</v>
@@ -9680,7 +9632,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.266844827801294</v>
+        <v>1.273860869960842</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.67540148269425</v>
@@ -9769,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.279045180958395</v>
+        <v>1.286823339538713</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.677763904050352</v>
@@ -9858,7 +9810,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.278148313000738</v>
+        <v>1.284969822354046</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.702630633863325</v>
@@ -9947,7 +9899,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.274681586829475</v>
+        <v>1.28017200271214</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.705922873688934</v>
@@ -10036,7 +9988,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.274489268676278</v>
+        <v>1.277882689528188</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.689851809585028</v>
@@ -10125,7 +10077,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.274691747417438</v>
+        <v>1.277177619340074</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.692107574837527</v>
@@ -10214,7 +10166,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.271206603127291</v>
+        <v>1.274771780283523</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.695216702447914</v>
@@ -10303,7 +10255,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.245586698208188</v>
+        <v>1.234967084916199</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.755378268699469</v>
@@ -10392,7 +10344,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.231812450065435</v>
+        <v>1.223449513614489</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.788482242014978</v>
@@ -10481,7 +10433,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.230122408662077</v>
+        <v>1.223054427417088</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.787191506522586</v>
@@ -10570,7 +10522,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.25301394490156</v>
+        <v>1.241334030553452</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.711563861022232</v>
@@ -10659,7 +10611,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.253612283145054</v>
+        <v>1.238291148578509</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.68741443024511</v>
@@ -10748,7 +10700,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.308359963019457</v>
+        <v>1.296123685970402</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.634987910743328</v>
@@ -10837,7 +10789,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.319659227758866</v>
+        <v>1.307027133287079</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.645691360065306</v>
@@ -10926,7 +10878,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.318453139479663</v>
+        <v>1.304649073977502</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.640813698438716</v>
@@ -11015,7 +10967,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.337680527988813</v>
+        <v>1.328333980865461</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.655308353017483</v>
@@ -11104,7 +11056,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.340139258760747</v>
+        <v>1.328707949657379</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.695833023296379</v>
@@ -11193,7 +11145,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.340560392174043</v>
+        <v>1.331517119177407</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.663404656734855</v>
@@ -11282,7 +11234,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.343970550897351</v>
+        <v>1.335331083271271</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.677999740214836</v>
@@ -11371,7 +11323,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.346017575772985</v>
+        <v>1.339904126408855</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.687500510559525</v>
@@ -11460,7 +11412,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.358891041061109</v>
+        <v>1.355234390537685</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.699424092101866</v>
@@ -11549,7 +11501,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.383240481955857</v>
+        <v>1.37888553316435</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.706387956063228</v>
@@ -11638,7 +11590,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.503791536963381</v>
+        <v>1.496454219018397</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.86981290142685</v>
@@ -11727,7 +11679,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.567915773452019</v>
+        <v>1.569552275620759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.542969764325247</v>
@@ -11816,7 +11768,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.58516179195262</v>
+        <v>1.583726029389854</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.689181905812757</v>
@@ -11905,7 +11857,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.595370353005919</v>
+        <v>1.591364840232897</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.707694648507308</v>
@@ -11994,7 +11946,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.598206679431947</v>
+        <v>1.595148001941678</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.590485148546846</v>
@@ -12083,7 +12035,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.585856581315292</v>
+        <v>1.587759084711203</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.586741456878192</v>
@@ -12172,7 +12124,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.577696291394614</v>
+        <v>1.580932384118016</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.653616497758124</v>
@@ -12261,7 +12213,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580766563962959</v>
+        <v>1.58573506902861</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.5435148861095</v>
@@ -12350,7 +12302,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.562735784285907</v>
+        <v>1.564686286956976</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.633226767912278</v>
@@ -12439,7 +12391,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.568290609504693</v>
+        <v>1.568384419325384</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.369199163192534</v>
@@ -12528,7 +12480,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.586847861193286</v>
+        <v>1.589030431643474</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.449504681660104</v>
@@ -12617,7 +12569,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.600837807236843</v>
+        <v>1.606927790108627</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.463866614650696</v>
@@ -12706,7 +12658,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.615983458800905</v>
+        <v>1.626203217688727</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.412056887328669</v>
@@ -12795,7 +12747,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609018007219153</v>
+        <v>1.626413317435364</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.575904608037949</v>
@@ -12884,7 +12836,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.592995566164615</v>
+        <v>1.61032761682479</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.467234616576628</v>
@@ -12973,7 +12925,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.59828881769796</v>
+        <v>1.623483545934554</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.4647849852418</v>
@@ -13062,7 +13014,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.615285972575307</v>
+        <v>1.638898349485029</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.632009245437232</v>
@@ -13151,7 +13103,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609486886460092</v>
+        <v>1.632266713055487</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.632080473143156</v>
@@ -13240,7 +13192,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.601416879709264</v>
+        <v>1.62631591224697</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.696127847878146</v>
@@ -13329,7 +13281,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.460770565003774</v>
+        <v>1.484595948290792</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.809842088058891</v>
@@ -13418,7 +13370,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.446291248018939</v>
+        <v>1.473673510478704</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.812163005839472</v>
@@ -13507,7 +13459,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446989651263483</v>
+        <v>1.473488374274983</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.825954527826043</v>
@@ -13596,7 +13548,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.449161223407485</v>
+        <v>1.474696212081878</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.823835640904196</v>
@@ -13685,7 +13637,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.454129692161368</v>
+        <v>1.480264616189571</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.818932191517233</v>
@@ -13774,7 +13726,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456823064058882</v>
+        <v>1.483778643312112</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.8063944368939</v>
@@ -13863,7 +13815,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.459112749100939</v>
+        <v>1.484418694130868</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.81225672861332</v>
@@ -13952,7 +13904,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.442691104764658</v>
+        <v>1.465635661457843</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.77875913221031</v>
@@ -14238,7 +14190,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542930364291965</v>
+        <v>1.554819475476381</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.446206762322843</v>
@@ -14327,7 +14279,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.550687612464813</v>
+        <v>1.560389048445965</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.517866655619576</v>
@@ -14416,7 +14368,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559805240235212</v>
+        <v>1.570913120378728</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.442627430993316</v>
@@ -14505,7 +14457,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.572532011282892</v>
+        <v>1.584715367516962</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.518006507650174</v>
@@ -14594,7 +14546,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576956961717006</v>
+        <v>1.584784096511671</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.423834053345668</v>
@@ -14683,7 +14635,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.596767915154012</v>
+        <v>1.608078678045626</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.299302386414194</v>
@@ -14772,7 +14724,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.605815511019585</v>
+        <v>1.615874835946203</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.478395624908198</v>
@@ -14861,7 +14813,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.597580532082647</v>
+        <v>1.611148858052369</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.406502763012701</v>
@@ -14950,7 +14902,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.592789652103341</v>
+        <v>1.608166238991911</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.418809464013357</v>
@@ -15039,7 +14991,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556363313279607</v>
+        <v>1.577771318871019</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.352388126735264</v>
@@ -15128,7 +15080,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.558149602597812</v>
+        <v>1.582123413328622</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.322604216441023</v>
@@ -15217,7 +15169,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.558407577911602</v>
+        <v>1.582011180142412</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.334569002373345</v>
@@ -15306,7 +15258,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.535776708322274</v>
+        <v>1.553156945562064</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.292067708811577</v>
@@ -15395,7 +15347,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.547159026217038</v>
+        <v>1.566222239786059</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.215175810196448</v>
@@ -15484,7 +15436,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.569063358502241</v>
+        <v>1.575537990958414</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.270808146961728</v>
@@ -15573,7 +15525,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.556621796450723</v>
+        <v>1.558738162753067</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.219447031378976</v>
@@ -15662,7 +15614,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561976410198763</v>
+        <v>1.565857463086366</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.202945530432044</v>
@@ -15751,7 +15703,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.569080491948277</v>
+        <v>1.573127131307422</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.236114684251978</v>
@@ -15840,7 +15792,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568966197480549</v>
+        <v>1.571521209760079</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.251459445631414</v>
@@ -15929,7 +15881,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.573666440374518</v>
+        <v>1.580707838591295</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.217471700928078</v>
@@ -16018,7 +15970,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.579266491283201</v>
+        <v>1.587734768447947</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.337683754378636</v>
@@ -16107,7 +16059,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.583331948582221</v>
+        <v>1.588596191720961</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.264749229099233</v>
@@ -16196,7 +16148,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.592693548957897</v>
+        <v>1.59998035839784</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.367374826906237</v>
@@ -16285,7 +16237,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.599808429135624</v>
+        <v>1.607808975895134</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.274863267235606</v>
@@ -16374,7 +16326,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.629845948935386</v>
+        <v>1.623872968029378</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.524806428751076</v>
@@ -16463,7 +16415,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.614768223318134</v>
+        <v>1.608028866749758</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.048978855310043</v>
@@ -16552,7 +16504,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.622967173848388</v>
+        <v>1.614358964773629</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.546081674654948</v>
@@ -16641,7 +16593,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.641406168721702</v>
+        <v>1.630544307382537</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.010985864599067</v>
@@ -16730,7 +16682,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.624188319760917</v>
+        <v>1.626500522714715</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.739010856541492</v>
@@ -16819,7 +16771,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.642614397617572</v>
+        <v>1.650248826465183</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.976477945638182</v>
@@ -16908,7 +16860,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.651613279333686</v>
+        <v>1.660226813403569</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.960872376585266</v>
@@ -16997,7 +16949,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64998762006824</v>
+        <v>1.655097020502082</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.811896042319535</v>
@@ -17086,7 +17038,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.643672376910946</v>
+        <v>1.647307627266716</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.196253706095525</v>
@@ -17175,7 +17127,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.645232363743867</v>
+        <v>1.651246453868353</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.058570126556092</v>
@@ -17264,7 +17216,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.663263904663756</v>
+        <v>1.665498371849387</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.044933481506133</v>
@@ -17353,7 +17305,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.671680178277826</v>
+        <v>1.671083329503674</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.841064146444503</v>
@@ -17442,7 +17394,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.684293833580175</v>
+        <v>1.696011823806562</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.601533756568307</v>
@@ -17531,7 +17483,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.700112441817764</v>
+        <v>1.706563783125287</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.458659153221443</v>
@@ -17620,7 +17572,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.714487063046268</v>
+        <v>1.717345455689597</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.413887429153692</v>
@@ -17709,7 +17661,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.728223798786192</v>
+        <v>1.73957622106395</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.426702342966792</v>
@@ -17798,7 +17750,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.7426645167958</v>
+        <v>1.760937167503358</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.566802792016235</v>
@@ -17887,7 +17839,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.733046167474803</v>
+        <v>1.757047316964761</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.616267824986278</v>
@@ -17976,7 +17928,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.738250184196132</v>
+        <v>1.763072054323763</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.645203283410409</v>
@@ -18065,7 +18017,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.681873017715898</v>
+        <v>1.712181465226855</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.568405283140951</v>
@@ -18154,7 +18106,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.665041951953752</v>
+        <v>1.699635985071438</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.578647948299899</v>
@@ -18243,7 +18195,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.663046224356398</v>
+        <v>1.69499181815136</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.538977107787876</v>
@@ -18332,7 +18284,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.66483776206043</v>
+        <v>1.704441176528033</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.597159986458863</v>
@@ -18421,7 +18373,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.672363436034623</v>
+        <v>1.710894890748578</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.600144856296975</v>
@@ -18510,7 +18462,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.6734261130873</v>
+        <v>1.70995159420676</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.570979382548401</v>
@@ -18599,7 +18551,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.666006787162614</v>
+        <v>1.702915334887754</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.586130161667767</v>
@@ -18688,7 +18640,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.658566014405755</v>
+        <v>1.698737679090383</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.516974793619993</v>
@@ -18974,7 +18926,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564480986703078</v>
+        <v>1.572478841977197</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.414971091145343</v>
@@ -19063,7 +19015,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.580906886166957</v>
+        <v>1.589298334065666</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.421817642017515</v>
@@ -19152,7 +19104,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.6058545058124</v>
+        <v>1.613068190242288</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.436132742043716</v>
@@ -19241,7 +19193,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.626708608548646</v>
+        <v>1.635961180535933</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.433587234028077</v>
@@ -19330,7 +19282,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.630769635484939</v>
+        <v>1.637464427349117</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.450056617608973</v>
@@ -19419,7 +19371,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.64773900257399</v>
+        <v>1.655903261978995</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.362862407722508</v>
@@ -19508,7 +19460,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.665573642730872</v>
+        <v>1.669473697093722</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.362953301590903</v>
@@ -19597,7 +19549,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.661559110383098</v>
+        <v>1.669221365356854</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.474364584883565</v>
@@ -19686,7 +19638,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.66141855502254</v>
+        <v>1.669968776818579</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.496755304358697</v>
@@ -19775,7 +19727,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.647159028226402</v>
+        <v>1.66325463070812</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.503025560876174</v>
@@ -19864,7 +19816,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.637469124544021</v>
+        <v>1.656078789323232</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.562526742798262</v>
@@ -19953,7 +19905,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.632394700627994</v>
+        <v>1.651159215805917</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.448804913969811</v>
@@ -20042,7 +19994,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.611678759142451</v>
+        <v>1.63006991302729</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.280524692167905</v>
@@ -20131,7 +20083,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.62903886123935</v>
+        <v>1.64818702433137</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.605932804480157</v>
@@ -20220,7 +20172,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.64809890944821</v>
+        <v>1.665251215352628</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.566897826495889</v>
@@ -20309,7 +20261,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.635395595647535</v>
+        <v>1.652056527105672</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.536684808854525</v>
@@ -20398,7 +20350,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.633499092311238</v>
+        <v>1.649233544499897</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.462164690013301</v>
@@ -20487,7 +20439,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.626441959333754</v>
+        <v>1.641636152836885</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.566234098468263</v>
@@ -20576,7 +20528,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.626822913746305</v>
+        <v>1.636745571340271</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.712402876134977</v>
@@ -20665,7 +20617,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618482214966139</v>
+        <v>1.632927223592969</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.550986974710568</v>
@@ -20754,7 +20706,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.624580887304972</v>
+        <v>1.640133625229857</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.559789530177641</v>
@@ -20843,7 +20795,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.652596011895937</v>
+        <v>1.666420445267339</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.588436089941628</v>
@@ -20932,7 +20884,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647892313879551</v>
+        <v>1.664166375562164</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.51428861225807</v>
@@ -21021,7 +20973,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.647131513028542</v>
+        <v>1.665147624358261</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.551868664782551</v>
@@ -21110,7 +21062,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.65277302296432</v>
+        <v>1.664227767010811</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.53863599515576</v>
@@ -21199,7 +21151,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.655755465579364</v>
+        <v>1.668212314264422</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.243531077627525</v>
@@ -21288,7 +21240,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.667870924258884</v>
+        <v>1.682427014405111</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.717829718169797</v>
@@ -21377,7 +21329,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.679245264607291</v>
+        <v>1.694719557056119</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.054049549851667</v>
@@ -21466,7 +21418,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671638744463706</v>
+        <v>1.688165275498228</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.164137615881909</v>
@@ -21555,7 +21507,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.683958052145695</v>
+        <v>1.699915880244002</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.918935998962791</v>
@@ -21644,7 +21596,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690883538897661</v>
+        <v>1.706872924615707</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.370972917698833</v>
@@ -21733,7 +21685,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700829760456118</v>
+        <v>1.717714671857762</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.995375010291786</v>
@@ -21822,7 +21774,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.700051441113856</v>
+        <v>1.718103548848395</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.096021782401428</v>
@@ -21911,7 +21863,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.701597540275189</v>
+        <v>1.719453358101838</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.691060508534955</v>
@@ -22000,7 +21952,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.729032354683056</v>
+        <v>1.743303601757388</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.298281600835127</v>
@@ -22089,7 +22041,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.741379365590968</v>
+        <v>1.759409394875737</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.494912834920032</v>
@@ -22178,7 +22130,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.746776062867454</v>
+        <v>1.767700655938479</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.348174645139403</v>
@@ -22267,7 +22219,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.772227926838749</v>
+        <v>1.797465319238395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.383746561501843</v>
@@ -22356,7 +22308,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.78413329308364</v>
+        <v>1.802473977276771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.292109708572479</v>
@@ -22445,7 +22397,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.791798823119698</v>
+        <v>1.811421834869984</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.319258707980741</v>
@@ -22534,7 +22486,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.802686393578193</v>
+        <v>1.823846761461405</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.40386397612037</v>
@@ -22623,7 +22575,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.790480174943281</v>
+        <v>1.809467124895472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.471515594826915</v>
@@ -22712,7 +22664,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.795483812053566</v>
+        <v>1.812724781686498</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.414966488917687</v>
@@ -22801,7 +22753,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.806644502134695</v>
+        <v>1.823150811144098</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.426999006239007</v>
@@ -22890,7 +22842,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.802999670761191</v>
+        <v>1.815129181043841</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.548184278146821</v>
@@ -22979,7 +22931,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.80383656831072</v>
+        <v>1.813710429121278</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.512770368687115</v>
@@ -23068,7 +23020,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.802542945960091</v>
+        <v>1.814059482095051</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.444837193564776</v>
@@ -23157,7 +23109,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.820184151991619</v>
+        <v>1.830340244132026</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.513284646266762</v>
@@ -23246,7 +23198,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.823246186813383</v>
+        <v>1.833964672051866</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.496260283033716</v>
@@ -23335,7 +23287,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.809240539832252</v>
+        <v>1.823091429278504</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.514072102536636</v>
@@ -23424,7 +23376,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.808735196022211</v>
+        <v>1.817015399413616</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.520647970182773</v>
@@ -23710,7 +23662,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.379659678108307</v>
+        <v>1.397655698928143</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.100013400201849</v>
@@ -23799,7 +23751,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.376615983383589</v>
+        <v>1.394599912370582</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.097818863503246</v>
@@ -23888,7 +23840,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.382840377584122</v>
+        <v>1.398441337455786</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.069726173986502</v>
@@ -23977,7 +23929,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.38284333364535</v>
+        <v>1.395350406168697</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.117074636528947</v>
@@ -24066,7 +24018,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.381544250626527</v>
+        <v>1.387464450937325</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.117873341418249</v>
@@ -24155,7 +24107,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.38071370947512</v>
+        <v>1.38673554968262</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.017788018326433</v>
@@ -24244,7 +24196,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.39400838706916</v>
+        <v>1.393300191858249</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.116813671998284</v>
@@ -24333,7 +24285,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.396624409199491</v>
+        <v>1.397899764973151</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.071554288914825</v>
@@ -24422,7 +24374,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.402595584598256</v>
+        <v>1.403404075925282</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.100077832317983</v>
@@ -24511,7 +24463,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.405066790322106</v>
+        <v>1.399353596638826</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.11499701536454</v>
@@ -24600,7 +24552,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.415820239913167</v>
+        <v>1.413539424393086</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.156245956425353</v>
@@ -24689,7 +24641,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.424332268446425</v>
+        <v>1.421594472740673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.116139820113378</v>
@@ -24778,7 +24730,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.440049726982938</v>
+        <v>1.427192212004528</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.940070302786908</v>
@@ -24867,7 +24819,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.486832954683837</v>
+        <v>1.465542942342997</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.234707640135367</v>
@@ -24956,7 +24908,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.519798434835185</v>
+        <v>1.488812873652675</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.23708260008851</v>
@@ -25045,7 +24997,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523480958030428</v>
+        <v>1.493132938764439</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.125706706617496</v>
@@ -25134,7 +25086,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.517681340150142</v>
+        <v>1.492597916776783</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.149268433454535</v>
@@ -25223,7 +25175,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.518697958133764</v>
+        <v>1.501885834962625</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.19752055995142</v>
@@ -25312,7 +25264,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531442259393127</v>
+        <v>1.514301863999854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.231893913086921</v>
@@ -25401,7 +25353,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.510827678031774</v>
+        <v>1.497745727197905</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.138484480600174</v>
@@ -25490,7 +25442,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.495159131051291</v>
+        <v>1.49026513271569</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.118407355257873</v>
@@ -25579,7 +25531,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.504402514264062</v>
+        <v>1.504013314133338</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.256637732328397</v>
@@ -25668,7 +25620,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.487485331949536</v>
+        <v>1.49144075638706</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.286309180055464</v>
@@ -25757,7 +25709,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.495045503980978</v>
+        <v>1.498248129488992</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.38467421842744</v>
@@ -25846,7 +25798,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.496412026740462</v>
+        <v>1.506231564147207</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.68928122162772</v>
@@ -25935,7 +25887,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.481559884002895</v>
+        <v>1.487377988330638</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.676998697908547</v>
@@ -26024,7 +25976,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.479324941232488</v>
+        <v>1.487045621531197</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.450232775526056</v>
@@ -26113,7 +26065,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.485749732852424</v>
+        <v>1.495699413547486</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.657240564196065</v>
@@ -26202,7 +26154,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.486903125007444</v>
+        <v>1.499709304632748</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.495372649764436</v>
@@ -26291,7 +26243,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.500288784167943</v>
+        <v>1.513151637519122</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.730385488733635</v>
@@ -26380,7 +26332,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.501787467357511</v>
+        <v>1.517947226482979</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.495669655754001</v>
@@ -26469,7 +26421,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.504868665503867</v>
+        <v>1.517449099722214</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.539837276704918</v>
@@ -26558,7 +26510,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.501553835931949</v>
+        <v>1.505601579492721</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.628020450526491</v>
@@ -26647,7 +26599,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.502208270435107</v>
+        <v>1.508434912882787</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.388562123590494</v>
@@ -26736,7 +26688,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.531231650894237</v>
+        <v>1.537536855010909</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.235972110213812</v>
@@ -26825,7 +26777,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.572781433084638</v>
+        <v>1.572732729648191</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.227214197051717</v>
@@ -26914,7 +26866,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585112764682736</v>
+        <v>1.592628260191824</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.468603918436866</v>
@@ -27003,7 +26955,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594796548268249</v>
+        <v>1.603999126641478</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.448601755681948</v>
@@ -27092,7 +27044,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584279604666621</v>
+        <v>1.596367384104533</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.395382476936188</v>
@@ -27181,7 +27133,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.571847117309914</v>
+        <v>1.591366753338598</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.506656288687287</v>
@@ -27270,7 +27222,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.588867747312749</v>
+        <v>1.617922147386898</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.587613626313903</v>
@@ -27359,7 +27311,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.584939888695744</v>
+        <v>1.616980173744166</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.479305418431921</v>
@@ -27448,7 +27400,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.584213536538996</v>
+        <v>1.615892861749606</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.634434439048758</v>
@@ -27537,7 +27489,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.581367836702607</v>
+        <v>1.616282904432537</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.520111554531328</v>
@@ -27626,7 +27578,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.578215112782704</v>
+        <v>1.614643845685161</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.634996400025953</v>
@@ -27715,7 +27667,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.57646446888922</v>
+        <v>1.60677229083601</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.572532565638153</v>
@@ -27804,7 +27756,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.565837443043971</v>
+        <v>1.603196890654437</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.582948712650148</v>
@@ -27893,7 +27845,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571647603124039</v>
+        <v>1.61045133750124</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.556398392238608</v>
@@ -27982,7 +27934,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.576239358532168</v>
+        <v>1.614936236082333</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.551779147949301</v>
@@ -28071,7 +28023,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.581088836807585</v>
+        <v>1.62056076871389</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.540163331904969</v>
@@ -28160,7 +28112,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.569962553697469</v>
+        <v>1.607926727665585</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.23634510679191</v>
@@ -28446,7 +28398,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.347093248017987</v>
+        <v>1.366560643858181</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.399348403933186</v>
@@ -28535,7 +28487,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.358933246544525</v>
+        <v>1.379508989573536</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.244514406747137</v>
@@ -28624,7 +28576,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.404395297696052</v>
+        <v>1.425813882857933</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.2922821918139</v>
@@ -28713,7 +28665,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.440916635613337</v>
+        <v>1.465864034416895</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.358074164089541</v>
@@ -28802,7 +28754,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.453358718216728</v>
+        <v>1.471773281433168</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.335378170662014</v>
@@ -28891,7 +28843,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.478810397034097</v>
+        <v>1.499352091970078</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.147884172467357</v>
@@ -28980,7 +28932,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.514394286720297</v>
+        <v>1.537357562781</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.256203003295445</v>
@@ -29069,7 +29021,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.500119108183417</v>
+        <v>1.527411414753531</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.390927226865819</v>
@@ -29158,7 +29110,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.500186766314168</v>
+        <v>1.528836243024864</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.382360841632079</v>
@@ -29247,7 +29199,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.485254199895224</v>
+        <v>1.509020381180703</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.415961955588159</v>
@@ -29336,7 +29288,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.470165598484912</v>
+        <v>1.497461667626567</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.425219703358954</v>
@@ -29425,7 +29377,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.474515796819573</v>
+        <v>1.500390259245291</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.278004806210586</v>
@@ -29514,7 +29466,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.472194524081151</v>
+        <v>1.48933884526706</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.296241568111635</v>
@@ -29603,7 +29555,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.510687009512256</v>
+        <v>1.533671410017454</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.48468597199558</v>
@@ -29692,7 +29644,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.515612965384148</v>
+        <v>1.538928179755025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.39073876016057</v>
@@ -29781,7 +29733,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.478839016936045</v>
+        <v>1.501256389438867</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.506979265589766</v>
@@ -29870,7 +29822,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.486924976797974</v>
+        <v>1.509009125723178</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.418228235910041</v>
@@ -29959,7 +29911,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.443968565641251</v>
+        <v>1.466302814684942</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.397740053947579</v>
@@ -30048,7 +30000,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.440557718165836</v>
+        <v>1.461471650283771</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.600336077419111</v>
@@ -30137,7 +30089,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.417506820811619</v>
+        <v>1.439636148651308</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.522389387448212</v>
@@ -30226,7 +30178,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.41383542237002</v>
+        <v>1.436872843112806</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.295099990989623</v>
@@ -30315,7 +30267,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.438867104735269</v>
+        <v>1.462871096056172</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.426024254568944</v>
@@ -30404,7 +30356,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.428552537105938</v>
+        <v>1.454723205356849</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.3132640734908</v>
@@ -30493,7 +30445,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415249177867942</v>
+        <v>1.435834655653687</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.452286694953681</v>
@@ -30582,7 +30534,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.406755627498517</v>
+        <v>1.430654086429246</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.404257528850916</v>
@@ -30671,7 +30623,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.402556190971732</v>
+        <v>1.427609139285934</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.455713370881542</v>
@@ -30760,7 +30712,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.409358639341696</v>
+        <v>1.436155729733756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.24198707993515</v>
@@ -30849,7 +30801,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.430341169576618</v>
+        <v>1.460309796754199</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.376928878199164</v>
@@ -30938,7 +30890,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.416757979780902</v>
+        <v>1.446924726131479</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.437137604951049</v>
@@ -31027,7 +30979,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.425683245829632</v>
+        <v>1.45148205630638</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.374205666414325</v>
@@ -31116,7 +31068,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.445687501300608</v>
+        <v>1.473607852759668</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.482189358094405</v>
@@ -31205,7 +31157,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.451722428953847</v>
+        <v>1.480697130526775</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.305875725073243</v>
@@ -31294,7 +31246,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.46956848287233</v>
+        <v>1.499121119063015</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.404611399315261</v>
@@ -31383,7 +31335,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.46656237709352</v>
+        <v>1.493863240819875</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.279053812963082</v>
@@ -31472,7 +31424,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.516617062297513</v>
+        <v>1.545028999017243</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.522089131777059</v>
@@ -31561,7 +31513,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.541045116241189</v>
+        <v>1.572725163529312</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.424222827341037</v>
@@ -31650,7 +31602,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52010061303311</v>
+        <v>1.547357986295254</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.215858410253669</v>
@@ -31739,7 +31691,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.547036429058127</v>
+        <v>1.582951589844318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.285805235904707</v>
@@ -31828,7 +31780,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.575044978917027</v>
+        <v>1.614108898100268</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.136618976338123</v>
@@ -31917,7 +31869,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.596963482046694</v>
+        <v>1.639330885515856</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.27310844584551</v>
@@ -32006,7 +31958,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.592164537281738</v>
+        <v>1.636285717716642</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.286016373910695</v>
@@ -32095,7 +32047,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.557603709300087</v>
+        <v>1.59914150632353</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.39071590603964</v>
@@ -32184,7 +32136,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.561188493301936</v>
+        <v>1.602511058762558</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.343148789115859</v>
@@ -32273,7 +32225,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.574254778355304</v>
+        <v>1.61804363773594</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.376239361235015</v>
@@ -32362,7 +32314,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557207607917277</v>
+        <v>1.602078917404326</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.431057889329045</v>
@@ -32451,7 +32403,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556855376379667</v>
+        <v>1.599011463529267</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.358906817538062</v>
@@ -32540,7 +32492,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.551385939136858</v>
+        <v>1.594433662328678</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.376195306777145</v>
@@ -32629,7 +32581,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.579454377131418</v>
+        <v>1.620939113692992</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.385617040727783</v>
@@ -32718,7 +32670,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.580983107172992</v>
+        <v>1.622730385458646</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.34640242675154</v>
@@ -32807,7 +32759,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.553896771087401</v>
+        <v>1.598647119897127</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.374418914011389</v>
@@ -32896,7 +32848,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.542605954683314</v>
+        <v>1.588821279165217</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.520011013361717</v>
